--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_AV-MCPS_Lineal_Estacionario_ARMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_AV-MCPS_Lineal_Estacionario_ARMA.xlsx
@@ -549,16 +549,16 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.7794781547543015</v>
+        <v>0.8050953615992988</v>
       </c>
       <c r="D2">
-        <v>0.8116043217564251</v>
+        <v>0.7729222761373844</v>
       </c>
       <c r="E2">
-        <v>0.9421362801104931</v>
+        <v>0.9470163210893376</v>
       </c>
       <c r="F2">
-        <v>0.2420298139134931</v>
+        <v>0.1963803731242795</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -566,19 +566,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7794781547543015</v>
+        <v>0.8050953615992988</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.9338005283461688</v>
+        <v>0.9357673702185372</v>
       </c>
       <c r="E3">
-        <v>0.8180865033674845</v>
+        <v>0.8010203735937627</v>
       </c>
       <c r="F3">
-        <v>0.2655280254900882</v>
+        <v>0.2220054667456803</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -586,19 +586,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8116043217564251</v>
+        <v>0.7729222761373844</v>
       </c>
       <c r="C4">
-        <v>0.9338005283461688</v>
+        <v>0.9357673702185372</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.8372057342891235</v>
+        <v>0.8297782885703899</v>
       </c>
       <c r="F4">
-        <v>0.5280650199551737</v>
+        <v>0.5067971554933928</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -606,19 +606,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9421362801104931</v>
+        <v>0.9470163210893376</v>
       </c>
       <c r="C5">
-        <v>0.8180865033674845</v>
+        <v>0.8010203735937627</v>
       </c>
       <c r="D5">
-        <v>0.8372057342891235</v>
+        <v>0.8297782885703899</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.2256656070316092</v>
+        <v>0.2406585595712734</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -626,16 +626,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2420298139134931</v>
+        <v>0.1963803731242795</v>
       </c>
       <c r="C6">
-        <v>0.2655280254900882</v>
+        <v>0.2220054667456803</v>
       </c>
       <c r="D6">
-        <v>0.5280650199551737</v>
+        <v>0.5067971554933928</v>
       </c>
       <c r="E6">
-        <v>0.2256656070316092</v>
+        <v>0.2406585595712734</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -679,16 +679,16 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-0.2801568017782001</v>
+        <v>-0.2514819579053896</v>
       </c>
       <c r="D2">
-        <v>-0.2384883764653705</v>
+        <v>-0.2941995757423908</v>
       </c>
       <c r="E2">
-        <v>-0.07262319818450823</v>
+        <v>-0.06765588580180595</v>
       </c>
       <c r="F2">
-        <v>-1.171376517843504</v>
+        <v>-1.356605561128354</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -696,19 +696,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2801568017782001</v>
+        <v>0.2514819579053896</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-0.0831078176328347</v>
+        <v>-0.08205142671232837</v>
       </c>
       <c r="E3">
-        <v>0.2301332136004377</v>
+        <v>0.2568638068843997</v>
       </c>
       <c r="F3">
-        <v>-1.114723222723296</v>
+        <v>-1.278081458713226</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -716,19 +716,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2384883764653705</v>
+        <v>0.2941995757423908</v>
       </c>
       <c r="C4">
-        <v>0.0831078176328347</v>
+        <v>0.08205142671232837</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2055807764812839</v>
+        <v>0.2190423139210384</v>
       </c>
       <c r="F4">
-        <v>-0.6314232443357065</v>
+        <v>-0.6812974570504345</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -736,19 +736,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.07262319818450823</v>
+        <v>0.06765588580180595</v>
       </c>
       <c r="C5">
-        <v>-0.2301332136004377</v>
+        <v>-0.2568638068843997</v>
       </c>
       <c r="D5">
-        <v>-0.2055807764812839</v>
+        <v>-0.2190423139210384</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-1.213162507823129</v>
+        <v>-1.225351358922314</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -756,16 +756,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.171376517843504</v>
+        <v>1.356605561128354</v>
       </c>
       <c r="C6">
-        <v>1.114723222723296</v>
+        <v>1.278081458713226</v>
       </c>
       <c r="D6">
-        <v>0.6314232443357065</v>
+        <v>0.6812974570504345</v>
       </c>
       <c r="E6">
-        <v>1.213162507823129</v>
+        <v>1.225351358922314</v>
       </c>
       <c r="F6">
         <v>0</v>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_AV-MCPS_Lineal_Estacionario_ARMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_AV-MCPS_Lineal_Estacionario_ARMA.xlsx
@@ -549,16 +549,16 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.8050953615992988</v>
+        <v>0.2791735733090193</v>
       </c>
       <c r="D2">
-        <v>0.7729222761373844</v>
+        <v>0.9900103484921605</v>
       </c>
       <c r="E2">
-        <v>0.9470163210893376</v>
+        <v>0.5183605806014022</v>
       </c>
       <c r="F2">
-        <v>0.1963803731242795</v>
+        <v>0.6986282952976306</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -566,19 +566,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8050953615992988</v>
+        <v>0.2791735733090193</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.9357673702185372</v>
+        <v>0.3292680384224016</v>
       </c>
       <c r="E3">
-        <v>0.8010203735937627</v>
+        <v>0.8439291954428856</v>
       </c>
       <c r="F3">
-        <v>0.2220054667456803</v>
+        <v>0.6452098102023642</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -586,19 +586,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7729222761373844</v>
+        <v>0.9900103484921605</v>
       </c>
       <c r="C4">
-        <v>0.9357673702185372</v>
+        <v>0.3292680384224016</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.8297782885703899</v>
+        <v>0.3957401085310659</v>
       </c>
       <c r="F4">
-        <v>0.5067971554933928</v>
+        <v>0.6975758005932167</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -606,19 +606,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9470163210893376</v>
+        <v>0.5183605806014022</v>
       </c>
       <c r="C5">
-        <v>0.8010203735937627</v>
+        <v>0.8439291954428856</v>
       </c>
       <c r="D5">
-        <v>0.8297782885703899</v>
+        <v>0.3957401085310659</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.2406585595712734</v>
+        <v>0.6869362645406496</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -626,16 +626,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1963803731242795</v>
+        <v>0.6986282952976306</v>
       </c>
       <c r="C6">
-        <v>0.2220054667456803</v>
+        <v>0.6452098102023642</v>
       </c>
       <c r="D6">
-        <v>0.5067971554933928</v>
+        <v>0.6975758005932167</v>
       </c>
       <c r="E6">
-        <v>0.2406585595712734</v>
+        <v>0.6869362645406496</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -679,16 +679,16 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-0.2514819579053896</v>
+        <v>-1.109552350649608</v>
       </c>
       <c r="D2">
-        <v>-0.2941995757423908</v>
+        <v>-0.01266356199879552</v>
       </c>
       <c r="E2">
-        <v>-0.06765588580180595</v>
+        <v>-0.6564216087321767</v>
       </c>
       <c r="F2">
-        <v>-1.356605561128354</v>
+        <v>-0.3922767677398991</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -696,19 +696,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2514819579053896</v>
+        <v>1.109552350649608</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-0.08205142671232837</v>
+        <v>0.9977099448022512</v>
       </c>
       <c r="E3">
-        <v>0.2568638068843997</v>
+        <v>0.1992086378366341</v>
       </c>
       <c r="F3">
-        <v>-1.278081458713226</v>
+        <v>0.466832584492825</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -716,19 +716,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2941995757423908</v>
+        <v>0.01266356199879552</v>
       </c>
       <c r="C4">
-        <v>0.08205142671232837</v>
+        <v>-0.9977099448022512</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2190423139210384</v>
+        <v>-0.8661796591684791</v>
       </c>
       <c r="F4">
-        <v>-0.6812974570504345</v>
+        <v>-0.3937227183098341</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -736,19 +736,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.06765588580180595</v>
+        <v>0.6564216087321767</v>
       </c>
       <c r="C5">
-        <v>-0.2568638068843997</v>
+        <v>-0.1992086378366341</v>
       </c>
       <c r="D5">
-        <v>-0.2190423139210384</v>
+        <v>0.8661796591684791</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-1.225351358922314</v>
+        <v>0.4083883689406895</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -756,16 +756,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.356605561128354</v>
+        <v>0.3922767677398991</v>
       </c>
       <c r="C6">
-        <v>1.278081458713226</v>
+        <v>-0.466832584492825</v>
       </c>
       <c r="D6">
-        <v>0.6812974570504345</v>
+        <v>0.3937227183098341</v>
       </c>
       <c r="E6">
-        <v>1.225351358922314</v>
+        <v>-0.4083883689406895</v>
       </c>
       <c r="F6">
         <v>0</v>
